--- a/teamf.xlsx
+++ b/teamf.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>sl.no</t>
   </si>
@@ -33,15 +33,6 @@
     <t>As a Finance manager I want to get notifications on daily money transactions So that I can  get more information about each and every transactions.</t>
   </si>
   <si>
-    <t>As a Finance manager I want to view the consumed money So that I can get the remaining balance</t>
-  </si>
-  <si>
-    <t>As a Finance manager I want to view financial reports on daily basis So that I can keep daily updates on the reports.</t>
-  </si>
-  <si>
-    <t>As a Finance manager I want to view the quotation on the product So that I can manage the budget.</t>
-  </si>
-  <si>
     <t>As a Finance manager I want to receive notifications on each money transaction  So that I can monitoring becomes easy.</t>
   </si>
   <si>
@@ -61,6 +52,24 @@
   </si>
   <si>
     <t>As a Finance manager I want to review all the documnents and respond back to the procurement team  So that I can communicate with the procurement team.</t>
+  </si>
+  <si>
+    <t>As a Finance manager I want to view the consumed budget So that I can get the remaining balance</t>
+  </si>
+  <si>
+    <t>As a Finance manager I want to view financial reports  like budget  on daily basis So that I can keep daily updates on the reports.</t>
+  </si>
+  <si>
+    <t>As a Finance manager I want to view the pending requests sent by the procurement team So that I can manage the budget accordingly.</t>
+  </si>
+  <si>
+    <t>As a finance manager I want to approve or deny the pending requests sent by the procurement team So that I can manage the pending requests.</t>
+  </si>
+  <si>
+    <t>As a finance manager I want to know the allocated budget So that I can respond to the pending requests.</t>
+  </si>
+  <si>
+    <t>As a finance manager I want to track the utilized budget So that I can I can monitor the remaining budget.</t>
   </si>
 </sst>
 </file>
@@ -410,7 +419,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -450,7 +459,7 @@
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -463,7 +472,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -476,7 +485,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="G5" s="3"/>
     </row>
@@ -486,7 +495,7 @@
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -494,7 +503,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -502,7 +511,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -510,7 +519,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -518,7 +527,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -526,7 +535,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -534,11 +543,32 @@
         <v>11</v>
       </c>
       <c r="C12" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="1"/>
+      <c r="C15" s="4" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1"/>

--- a/teamf.xlsx
+++ b/teamf.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>sl.no</t>
   </si>
@@ -30,46 +30,76 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>As a Finance manager I want to get notifications on daily money transactions So that I can  get more information about each and every transactions.</t>
-  </si>
-  <si>
-    <t>As a Finance manager I want to receive notifications on each money transaction  So that I can monitoring becomes easy.</t>
-  </si>
-  <si>
-    <t>As a Finance manager I want to review whether goods taken from the consumer is received on time So that I can track the updates.</t>
-  </si>
-  <si>
     <t>As a Finance manager I want to review the terms and conditions set on the consumer if he fails to provide the goods in time  So that I can track the updates.</t>
   </si>
   <si>
-    <t>As a Finance manager I want to pay the money to the consumer on time   So that I can keep a healthy relation with the customer.</t>
-  </si>
-  <si>
     <t>As a Finance manager I want to set increment or decrement on the budget set through edit option   So that I can vary the budget according to the situation.</t>
   </si>
   <si>
-    <t>As a Finance manager I want to monitor the terms and condition or quotation set by each seller  So that I can validate whether the buying is done from proper seller.</t>
-  </si>
-  <si>
-    <t>As a Finance manager I want to review all the documnents and respond back to the procurement team  So that I can communicate with the procurement team.</t>
-  </si>
-  <si>
-    <t>As a Finance manager I want to view the consumed budget So that I can get the remaining balance</t>
-  </si>
-  <si>
-    <t>As a Finance manager I want to view financial reports  like budget  on daily basis So that I can keep daily updates on the reports.</t>
-  </si>
-  <si>
-    <t>As a Finance manager I want to view the pending requests sent by the procurement team So that I can manage the budget accordingly.</t>
-  </si>
-  <si>
-    <t>As a finance manager I want to approve or deny the pending requests sent by the procurement team So that I can manage the pending requests.</t>
-  </si>
-  <si>
-    <t>As a finance manager I want to know the allocated budget So that I can respond to the pending requests.</t>
-  </si>
-  <si>
-    <t>As a finance manager I want to track the utilized budget So that I can I can monitor the remaining budget.</t>
+    <t>As a Finance manager I want to get notifications on all pending requests So that I can  get more information about each and every requests.</t>
+  </si>
+  <si>
+    <t>As a Finance manager I want to view the pending requsts So that I can approve or reject the request.</t>
+  </si>
+  <si>
+    <t>As a Finance manager I want to approve or reject the request  So that I can keep the track on approved requests.</t>
+  </si>
+  <si>
+    <t>As a Finance manager I want to view the quotations sent by the procurement team So that I can manage the quoatations accordingly.</t>
+  </si>
+  <si>
+    <t>As a Finance manager I want to validate each quotations sent by the procurement team So that I can select the best quoatation.</t>
+  </si>
+  <si>
+    <t>As a finance manager I want to view the allocated budget So that I can select my quotation.</t>
+  </si>
+  <si>
+    <t>As a Finance manager I want to select one best quotation set by the sellers by going through the terms and condition of each seller and allocate the finance  So that I can fulfill my duty.</t>
+  </si>
+  <si>
+    <t>As a Finance manager I want to review all the documnents and respond back to the procurement team  So that I can maintain good communication with the procurement team</t>
+  </si>
+  <si>
+    <t>As a Finance manager I want to release money in given time  So that I can efficiently perform my duty.</t>
+  </si>
+  <si>
+    <t>As a Finance manager I want to get notifications on each money transaction  So that I can monitor each money transaction.</t>
+  </si>
+  <si>
+    <t>As a Finance manager I want to get notifications on daily transaction  So that I can monitor the daily transactions.</t>
+  </si>
+  <si>
+    <t>As a Finance manager I want to view  the consumed budget  So that I can enquire about the balance.</t>
+  </si>
+  <si>
+    <t>As a Finance manager I want view whether the goods taken in from the customer are received on time  So that I can set the terms and condition else.</t>
+  </si>
+  <si>
+    <t>Request</t>
+  </si>
+  <si>
+    <t>Review and</t>
+  </si>
+  <si>
+    <t>approval of</t>
+  </si>
+  <si>
+    <t>quotation</t>
+  </si>
+  <si>
+    <t>As a finance manager I want to get financial report based on budget, approval time on daily basis So that I can manage the report.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Review on </t>
+  </si>
+  <si>
+    <t>transactions.</t>
+  </si>
+  <si>
+    <t>conditions</t>
+  </si>
+  <si>
+    <t>edit</t>
   </si>
 </sst>
 </file>
@@ -85,12 +115,42 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -114,14 +174,34 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -419,13 +499,13 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="11.85546875" customWidth="1"/>
-    <col min="3" max="3" width="150.7109375" customWidth="1"/>
+    <col min="3" max="3" width="179.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -443,9 +523,9 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2" t="s">
-        <v>4</v>
+      <c r="B2" s="4"/>
+      <c r="C2" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -457,9 +537,11 @@
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2" t="s">
-        <v>12</v>
+      <c r="B3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>7</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -471,8 +553,9 @@
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>13</v>
+      <c r="B4" s="4"/>
+      <c r="C4" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -484,8 +567,9 @@
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>14</v>
+      <c r="B5" s="8"/>
+      <c r="C5" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="G5" s="3"/>
     </row>
@@ -493,81 +577,122 @@
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="4" t="s">
-        <v>5</v>
+      <c r="B6" s="8"/>
+      <c r="C6" s="7" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>6</v>
+      <c r="B7" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>7</v>
+      <c r="B8" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>8</v>
+      <c r="B9" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>9</v>
+      <c r="B10" s="8"/>
+      <c r="C10" s="7" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>10</v>
+      <c r="B11" s="12"/>
+      <c r="C11" s="9" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>11</v>
+      <c r="B12" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>15</v>
+      <c r="B13" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1">
-        <v>13</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="B14" s="12"/>
+      <c r="C14" s="9" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1">
-        <v>14</v>
-      </c>
-      <c r="C15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="1">
+        <v>16</v>
+      </c>
+      <c r="B16" s="13"/>
+      <c r="C16" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
         <v>17</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:3">
